--- a/medicine/Enfance/Claude_Roy_(écrivain)/Claude_Roy_(écrivain).xlsx
+++ b/medicine/Enfance/Claude_Roy_(écrivain)/Claude_Roy_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Roy_(%C3%A9crivain)</t>
+          <t>Claude_Roy_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Roy est un poète, journaliste et écrivain français, né à Paris le 28 août 1915 où il est mort le 13 décembre 1997.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Roy_(%C3%A9crivain)</t>
+          <t>Claude_Roy_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,38 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Pierre Marie Félicien Roy naît dans le 8e arrondissement de Paris le 28 août 1915[1],[2].
-Fils d'un artiste peintre espagnol[3] et d'une mère charentaise[4], le jeune Claude, élevé à Jarnac, se lie d’amitié avec François Mitterrand avec qui il fait une partie de ses études[5],[6],[7]. Après avoir été élève au lycée Guez-de-Balzac à Angoulême, puis étudiant à l’université de Bordeaux, il se rend à Paris en 1935 pour s’inscrire à la faculté de droit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Pierre Marie Félicien Roy naît dans le 8e arrondissement de Paris le 28 août 1915,.
+Fils d'un artiste peintre espagnol et d'une mère charentaise, le jeune Claude, élevé à Jarnac, se lie d’amitié avec François Mitterrand avec qui il fait une partie de ses études. Après avoir été élève au lycée Guez-de-Balzac à Angoulême, puis étudiant à l’université de Bordeaux, il se rend à Paris en 1935 pour s’inscrire à la faculté de droit.
 Il est séduit par l'énergie du projet contre-révolutionnaire des Camelots du roi. La dimension provocatrice du mouvement maurrassien satisfait son mépris pour l'ordre bourgeois. Avec d’autres jeunes gens fous de littérature et d'action radicale (Philippe Ariès, Raoul Girardet ou Pierre Boutang), il écrit dans l’organe des étudiants de l'Action française, L'Étudiant français et pour le Courrier royal.
 Avec Pierre de Bénouville, André Bettencourt et François Mitterrand, il fait aussi partie de ces étudiants résidant à l’internat des pères maristes (situé au 104, rue de Vaugirard à Paris) qui fréquentent les chefs de la Cagoule sans adhérer forcément à la formation d'extrême droite. Parallèlement, il publie quelques nouvelles dans La Nouvelle Revue française et La Revue du siècle, nouvelles d’où ressort l’influence de Jean Giraudoux dont il se réclame comme de Jules Supervielle] ou André Malraux.
-Lié à Thierry Maulnier, Robert Brasillach et Lucien Rebatet, il écrit comme critique littéraire dans la revue L'Insurgé (sous le pseudonyme de Claude Orland[5]) et dans Je suis partout dès 1937[8]. Rebatet le qualifiera de « renégat » pour avoir refusé de signer la demande de grâce de Brasillach, en 1945[9].
-La guerre
-Appelé par ses obligations militaires, il est déjà soldat lorsque la guerre éclate. Alors que son premier poème est publié par Pierre Seghers dans Poésie 40, il est fait prisonnier au mois de juin 1940. Dès octobre 1940, il s'évade et gagne la zone libre. C'est là qu'il écrit ses premiers poèmes : L'absent, en mémoire du sergent Raphaël Roy, et Un mort m'attend à la maison, en mémoire du lieutenant Félix Roy.
-En 1941, son expérience de la guerre et l'action d’un régime de Vichy imprégné de maurrassisme l'amènent à cesser sa collaboration à Je suis partout. Il s’engage alors dans la Résistance au sein des Étoiles, une organisation où il rencontre André Gide, Jean Giraudoux, Paul Éluard, Louis Aragon et Elsa Triolet ainsi que la jeune Madeleine Riffaud, dans une maison de repos de l'Isère, qu'il encourage à écrire des poèmes.
-Ces derniers le persuadent d'adhérer au Parti communiste en 1943. Rallié aux Forces françaises de l'intérieur lors de la libération de Paris, il devient correspondant de guerre durant la campagne d'Allemagne où il suit des procès pour Combat. Chroniqueur au journal Libération, critique littéraire, d'art et de théâtre, il fréquente alors avec assiduité les réunions du groupe de la rue Saint-Benoît. Il y croise diverses personnalités dont Marguerite Duras et  Edgar Morin. Connu jusque-là comme poète (Clair comme le jour, 1943 ; Élégie des lieux communs, 1952), il publie le roman La nuit est le manteau des pauvres en 1948. Il sera hanté par la mort : « Né dans la guerre, en 1915, je suis venu à la conscience d'homme pour voir se succéder les guerres », « Des années durant, ma génération a vécu sans lendemain », fait-il dire à son héros dans La nuit est le manteau des pauvres. Il est après-guerre journaliste à l'Union française de l'information, qui fédère une centaine de quotidiens et hebdomadaires contrôlés par le PCF ou proches de lui.
-Les années 1950
-Il publie des récits de voyages rendant compte de ses pérégrinations aux États-Unis (Clefs pour l’Amérique, 1947) et en Chine (Clefs pour la Chine, 1953). Mais, en 1956, l’intervention soviétique en Hongrie l’amène à rompre avec la ligne du PCF (dans le cadre d'une déclaration également signée par Sartre et Roger Vailland).
-Il amorce sa collaboration à France Observateur à partir de 1957. Il y exprime des positions anti-soviétiques, et il s'engage contre la guerre d'Algérie et la torture pratiquée au centre du Landy (octobre 1957), proche de France Observateur et des mouvances sartrienne et chrétienne. Définitivement exclu du PCF en juin 1958, il appelle à une mobilisation communiste lors de l’arrivée du général de Gaulle. Il est alors, comme d’autres anciens communistes (François Furet, Serge Mallet), devenu pigiste régulier de France Obs.
-Les années 1960
-Mais cela ne l’empêche pas de s’y distinguer en signant le Manifeste des 121, titré « Déclaration sur le droit à l’insoumission dans la guerre d’Algérie » (1960). Il n’est pas de la nouvelle formule de l'Observateur (novembre 1964) et attend juin 1966 pour y intervenir de nouveau. Collaborateur régulier à partir de février 1968, il y traite à la fois de littérature, de livres de sciences humaines et d’essais de tous genres. Il rend par exemple compte de La Révolution introuvable de Raymond Aron (19 septembre 1968) ou du Premier Cercle de Soljenitsyne (18 novembre 1968).
-Il est parallèlement actif dans les premières réunions de sensibilisation de la jeunesse à la cause vietnamienne.
-Les années 1970
-Il effectue aussi un reportage aux États-Unis durant l’été 1969. Cette année-là, il publie le premier tome de son autobiographie (Moi je) chez Gallimard, dont il devient membre du comité de lecture jusqu'à sa mort. Politiquement, il s’oppose à tous les régimes oppressifs, dénonçant par exemple la répression en Turquie. Mais c’est surtout la situation dans les pays de l’Est qui l’intéresse, comme l’illustre son dossier sur Le Printemps aux œillets rouges (1er juin 1974) ou sa défense de L'Archipel du Goulag en juillet 1974.
-Critique virulent de la « maolâtrie » en vigueur dans les milieux « germanopratins »[10], il supporte mal le « hold-up » des Nouveaux Philosophes sur la question du goulag. Qualifiant ces derniers de « disc-jockeys de la pensée » (18 juillet 1977), il s’engage aussi à dénoncer le mythe maoïste dans les colonnes de la revue Esprit.
-De même, dans le Nouvel Observateur de juillet 1979, il évoque longuement la Chine telle qu'elle lui est apparue lors d'un voyage récent. Et, à la rentrée, il tire de ses articles sur le sujet un recueil (Sur la Chine, Gallimard) où il ne cache ni sa tristesse pour un pays dont il aime profondément le peuple, ni ses illusions passées quant à l'aptitude du maoïsme à corriger ses erreurs. Il s’en prend aussi avec verve aux rapports qu'entretient l'intelligentsia parisienne avec l'idéologie du Grand Timonier[11]. S'il participe aussi au débat sur la Nouvelle Droite, son intérêt pour l’Extrême-Orient l’amène à ferrailler sur la question du Cambodge avec Noam Chomsky[10].
-Les années 1980
-Dans son débat avec ce dernier en juin 1980, il critique sa position qui assimile les insuffisances et les tares des démocraties bourgeoises aux crimes des régimes totalitaires, voire aux crimes nazis. Il tire de ses réflexions sur l'aveuglement qu'entraînent les idéologies un ouvrage, Les Chercheurs de dieux : croyance et politique (Gallimard, 1981), où il analyse la propension des hommes à vouer une véritable foi à quelqu'un ou à quelque chose, appliquant particulièrement cette réflexion à l’ersatz de religion qu'est pour lui le communisme. Au printemps 1981, il effectue un voyage en Pologne, puis publie le carnet de route qu'il y a tenu.
-Se découvrant atteint d'un cancer du poumon en juin 1982 (expérience qu'il racontera dans Permis de séjour), il collabore moins régulièrement au Nouvel Observateur. Véritable polygraphe, il ne cesse de publier des romans, des témoignages sur ses nombreux voyages, des descriptions critiques, des essais sur l'art et sur les artistes, dont beaucoup sont ses amis, des livres pour enfants et des poèmes, car la poésie est au cœur de toute son écriture. 
-En 1985, il reçoit le premier prix Goncourt de la poésie de l'académie Goncourt.
-Les dernières années
-Il écrit qu'il a conclu « une paix honorable ou du moins un armistice acceptable avec le monde et lui-même, sans se résigner à l'iniquité de la vie, ni s'aveugler sur ses propres manques »[réf. nécessaire].
-De 1983 à l'année de sa mort, il publie six volumes de son journal intime, qui mêle réflexions, récits, carnets de voyages, poèmes et aphorismes, et qui couvre les années 1977-1995.
-Il écrit aussi des essais, notamment sur la poésie (Le travail du poète et La conversation des poètes, les deux en 1993).
-Il meurt le 13 décembre 1997 dans le 6e arrondissement de Paris[2], à l'âge de 82 ans[12],[1],[13].
-Famille
-Claude Roy se marie en 1958 en secondes noces avec la comédienne et dramaturge Loleh Bellon (1925-1999), elle-même divorcée de l'écrivain et dirigeant communiste espagnol Jorge Semprún, et devient alors le beau-père de Jaime Semprun (1947-2010). Loleh Bellon le soutient pendant les dernières années de sa vie et ne lui survit que deux ans[14],[15].
+Lié à Thierry Maulnier, Robert Brasillach et Lucien Rebatet, il écrit comme critique littéraire dans la revue L'Insurgé (sous le pseudonyme de Claude Orland) et dans Je suis partout dès 1937. Rebatet le qualifiera de « renégat » pour avoir refusé de signer la demande de grâce de Brasillach, en 1945.
 </t>
         </is>
       </c>
@@ -553,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claude_Roy_(%C3%A9crivain)</t>
+          <t>Claude_Roy_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,10 +557,282 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La guerre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appelé par ses obligations militaires, il est déjà soldat lorsque la guerre éclate. Alors que son premier poème est publié par Pierre Seghers dans Poésie 40, il est fait prisonnier au mois de juin 1940. Dès octobre 1940, il s'évade et gagne la zone libre. C'est là qu'il écrit ses premiers poèmes : L'absent, en mémoire du sergent Raphaël Roy, et Un mort m'attend à la maison, en mémoire du lieutenant Félix Roy.
+En 1941, son expérience de la guerre et l'action d’un régime de Vichy imprégné de maurrassisme l'amènent à cesser sa collaboration à Je suis partout. Il s’engage alors dans la Résistance au sein des Étoiles, une organisation où il rencontre André Gide, Jean Giraudoux, Paul Éluard, Louis Aragon et Elsa Triolet ainsi que la jeune Madeleine Riffaud, dans une maison de repos de l'Isère, qu'il encourage à écrire des poèmes.
+Ces derniers le persuadent d'adhérer au Parti communiste en 1943. Rallié aux Forces françaises de l'intérieur lors de la libération de Paris, il devient correspondant de guerre durant la campagne d'Allemagne où il suit des procès pour Combat. Chroniqueur au journal Libération, critique littéraire, d'art et de théâtre, il fréquente alors avec assiduité les réunions du groupe de la rue Saint-Benoît. Il y croise diverses personnalités dont Marguerite Duras et  Edgar Morin. Connu jusque-là comme poète (Clair comme le jour, 1943 ; Élégie des lieux communs, 1952), il publie le roman La nuit est le manteau des pauvres en 1948. Il sera hanté par la mort : « Né dans la guerre, en 1915, je suis venu à la conscience d'homme pour voir se succéder les guerres », « Des années durant, ma génération a vécu sans lendemain », fait-il dire à son héros dans La nuit est le manteau des pauvres. Il est après-guerre journaliste à l'Union française de l'information, qui fédère une centaine de quotidiens et hebdomadaires contrôlés par le PCF ou proches de lui.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les années 1950</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie des récits de voyages rendant compte de ses pérégrinations aux États-Unis (Clefs pour l’Amérique, 1947) et en Chine (Clefs pour la Chine, 1953). Mais, en 1956, l’intervention soviétique en Hongrie l’amène à rompre avec la ligne du PCF (dans le cadre d'une déclaration également signée par Sartre et Roger Vailland).
+Il amorce sa collaboration à France Observateur à partir de 1957. Il y exprime des positions anti-soviétiques, et il s'engage contre la guerre d'Algérie et la torture pratiquée au centre du Landy (octobre 1957), proche de France Observateur et des mouvances sartrienne et chrétienne. Définitivement exclu du PCF en juin 1958, il appelle à une mobilisation communiste lors de l’arrivée du général de Gaulle. Il est alors, comme d’autres anciens communistes (François Furet, Serge Mallet), devenu pigiste régulier de France Obs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les années 1960</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mais cela ne l’empêche pas de s’y distinguer en signant le Manifeste des 121, titré « Déclaration sur le droit à l’insoumission dans la guerre d’Algérie » (1960). Il n’est pas de la nouvelle formule de l'Observateur (novembre 1964) et attend juin 1966 pour y intervenir de nouveau. Collaborateur régulier à partir de février 1968, il y traite à la fois de littérature, de livres de sciences humaines et d’essais de tous genres. Il rend par exemple compte de La Révolution introuvable de Raymond Aron (19 septembre 1968) ou du Premier Cercle de Soljenitsyne (18 novembre 1968).
+Il est parallèlement actif dans les premières réunions de sensibilisation de la jeunesse à la cause vietnamienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les années 1970</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue aussi un reportage aux États-Unis durant l’été 1969. Cette année-là, il publie le premier tome de son autobiographie (Moi je) chez Gallimard, dont il devient membre du comité de lecture jusqu'à sa mort. Politiquement, il s’oppose à tous les régimes oppressifs, dénonçant par exemple la répression en Turquie. Mais c’est surtout la situation dans les pays de l’Est qui l’intéresse, comme l’illustre son dossier sur Le Printemps aux œillets rouges (1er juin 1974) ou sa défense de L'Archipel du Goulag en juillet 1974.
+Critique virulent de la « maolâtrie » en vigueur dans les milieux « germanopratins », il supporte mal le « hold-up » des Nouveaux Philosophes sur la question du goulag. Qualifiant ces derniers de « disc-jockeys de la pensée » (18 juillet 1977), il s’engage aussi à dénoncer le mythe maoïste dans les colonnes de la revue Esprit.
+De même, dans le Nouvel Observateur de juillet 1979, il évoque longuement la Chine telle qu'elle lui est apparue lors d'un voyage récent. Et, à la rentrée, il tire de ses articles sur le sujet un recueil (Sur la Chine, Gallimard) où il ne cache ni sa tristesse pour un pays dont il aime profondément le peuple, ni ses illusions passées quant à l'aptitude du maoïsme à corriger ses erreurs. Il s’en prend aussi avec verve aux rapports qu'entretient l'intelligentsia parisienne avec l'idéologie du Grand Timonier. S'il participe aussi au débat sur la Nouvelle Droite, son intérêt pour l’Extrême-Orient l’amène à ferrailler sur la question du Cambodge avec Noam Chomsky.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les années 1980</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son débat avec ce dernier en juin 1980, il critique sa position qui assimile les insuffisances et les tares des démocraties bourgeoises aux crimes des régimes totalitaires, voire aux crimes nazis. Il tire de ses réflexions sur l'aveuglement qu'entraînent les idéologies un ouvrage, Les Chercheurs de dieux : croyance et politique (Gallimard, 1981), où il analyse la propension des hommes à vouer une véritable foi à quelqu'un ou à quelque chose, appliquant particulièrement cette réflexion à l’ersatz de religion qu'est pour lui le communisme. Au printemps 1981, il effectue un voyage en Pologne, puis publie le carnet de route qu'il y a tenu.
+Se découvrant atteint d'un cancer du poumon en juin 1982 (expérience qu'il racontera dans Permis de séjour), il collabore moins régulièrement au Nouvel Observateur. Véritable polygraphe, il ne cesse de publier des romans, des témoignages sur ses nombreux voyages, des descriptions critiques, des essais sur l'art et sur les artistes, dont beaucoup sont ses amis, des livres pour enfants et des poèmes, car la poésie est au cœur de toute son écriture. 
+En 1985, il reçoit le premier prix Goncourt de la poésie de l'académie Goncourt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les dernières années</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il écrit qu'il a conclu « une paix honorable ou du moins un armistice acceptable avec le monde et lui-même, sans se résigner à l'iniquité de la vie, ni s'aveugler sur ses propres manques »[réf. nécessaire].
+De 1983 à l'année de sa mort, il publie six volumes de son journal intime, qui mêle réflexions, récits, carnets de voyages, poèmes et aphorismes, et qui couvre les années 1977-1995.
+Il écrit aussi des essais, notamment sur la poésie (Le travail du poète et La conversation des poètes, les deux en 1993).
+Il meurt le 13 décembre 1997 dans le 6e arrondissement de Paris, à l'âge de 82 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Roy se marie en 1958 en secondes noces avec la comédienne et dramaturge Loleh Bellon (1925-1999), elle-même divorcée de l'écrivain et dirigeant communiste espagnol Jorge Semprún, et devient alors le beau-père de Jaime Semprun (1947-2010). Loleh Bellon le soutient pendant les dernières années de sa vie et ne lui survit que deux ans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Défense de la littérature, idées, folio
 Moi je, Gallimard, 1969 ; Folio, 1978
@@ -582,17 +843,85 @@
 L'Étonnement du voyageur, 1987-1989, Gallimard, 1990, prix France Culture
 Le Rivage des jours, 1990-1991, Gallimard, 1992
 Les Rencontres des jours, 1992-1993, Gallimard, 1995 ; Folio, 1996
-Chemins croisés, 1994-1995, Gallimard, 1997
-Documentaires
-Clefs pour l’Amérique, Trois Collines, Paris-Genève, 1947
+Chemins croisés, 1994-1995, Gallimard, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Clefs pour l’Amérique, Trois Collines, Paris-Genève, 1947
 Clefs pour la Chine, Gallimard, 1953
 Le Journal des voyages, Gallimard, 1960
 Tout Paris, photographies de André Martin, Delpire Éditeur, Paris, 1964
 Sur la Chine, Gallimard, 1979
 La France de profil, La Guilde du Livre, 1952
-La Chine dans un miroir, La Guilde du Livre, 1952
-Descriptions critiques
-Aragon, Seghers, 1945. Un essai. Coll. Poètes d'aujourd'hui, no 2. 1951 : édition entièrement remaniée et complétée
+La Chine dans un miroir, La Guilde du Livre, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Descriptions critiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aragon, Seghers, 1945. Un essai. Coll. Poètes d'aujourd'hui, no 2. 1951 : édition entièrement remaniée et complétée
 Lire Marivaux, La Baconnière, 1947
 Descriptions critiques, Gallimard, 1950
 Stendhal par lui-même, collections Microcosme "Écrivains de toujours", Le Seuil, 1951
@@ -607,35 +936,171 @@
 Les Soleils du romantisme, Gallimard, 1974
 Jean Vilar, Calmann-Lévy, 1987
 Paul Klee, aux sources de la peinture, 1963
-Nicolas Eekman (1889-1973), avec Emmanuel Bréon, Jean-Louis Monod, Luce Eekman et Colette Chaignon, coédition Le Sillon et Somogy, 2004
-Essais
-Les Yeux ouverts dans Paris insurgé, in Les Lettres françaises des 9 et 16 septembre 1944 (reproduit dans La République du Silence, Harcourt, Brace and Company, 1947, p. 391-413)
+Nicolas Eekman (1889-1973), avec Emmanuel Bréon, Jean-Louis Monod, Luce Eekman et Colette Chaignon, coédition Le Sillon et Somogy, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Yeux ouverts dans Paris insurgé, in Les Lettres françaises des 9 et 16 septembre 1944 (reproduit dans La République du Silence, Harcourt, Brace and Company, 1947, p. 391-413)
 Victoire de la volonté, in Les Lettres françaises des 30 septembre et 7 octobre 1944 (reproduit dans La République du Silence, Harcourt, Brace and Company, 1947, p. 414-438)
 L’Amour de la peinture, Gallimard, 1955, Folio essais, 1987
 Arts fantastiques, Paris, Robert Delpire Éditeur, 1960
-Arts premiers, Delpire, collection Encyclopédie essentielle, 1965[16]
+Arts premiers, Delpire, collection Encyclopédie essentielle, 1965
 Défense de la littérature, Gallimard, 1968
 Temps variable avec éclaircies, Gallimard, 1985
 Les Chercheurs de Dieu, Gallimard, 1981
 L’ami qui venait de l’an mil, Su Dongpo 1037-1101, Gallimard, 1993
 Le Travail du poète, Paroles d’Aube, 1993
 L'Art à la source, Gallimard, 1992
-La Conversation des poètes, Gallimard, 1993
-Romans
-La nuit est le manteau des pauvres, Gallimard, 1949
+La Conversation des poètes, Gallimard, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La nuit est le manteau des pauvres, Gallimard, 1949
 À tort ou à raison, Gallimard, 1955
 Le Soleil sur la terre, Gallimard, 1956
 Le Malheur d’aimer, Gallimard, 1958, Folio, 1974
 Léone et les siens, Gallimard, 1963
 La Dérobée, Gallimard, 1968
 La Traversée du pont des arts, Gallimard, 1979, Folio, 1983
-L’Ami lointain, Gallimard, 1987, Folio, 1990
-Théâtre
-Le Chariot de terre cuite, Gallimard, 1969
+L’Ami lointain, Gallimard, 1987, Folio, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Chariot de terre cuite, Gallimard, 1969
 Gérard Philipe, en collaboration avec Anne Philippe, Gallimard, 1960
-1972 : adaptation de Honni soit qui mal y pense de Peter Barnes, mise en scène Stuart Burge, Théâtre de Paris
-Livres pour enfants
- La Famille quatre cents coups, Club Français du livre, 1954
+1972 : adaptation de Honni soit qui mal y pense de Peter Barnes, mise en scène Stuart Burge, Théâtre de Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Famille quatre cents coups, Club Français du livre, 1954
  Mères et Petits, (sous le pseudonyme Fréderic Massy ), Photos par Ylla, La Guilde du Livre / Clairefontaine, Lausanne, 1958
  Les machines à tout faire , Balland, 1973. (Illustré par Carelman )
  La Maison qui s’envole, Folio Junior, 1977
@@ -645,9 +1110,43 @@
  Les Animaux très sagaces, Folio Cadet, 1983
  Claude Roy un poète, Folio Junior en poésie, 1985
  Les Coups en dessous, Folio Cadet, 1987
- Désiré Bienvenu, Folio Junior, 1989
-Recueils de poésie
-Ses premiers textes littéraires sont des poèmes, publiés par Pierre Seghers dans Poésie 40 et Max-Pol Fouchet dans Fontaine.
+ Désiré Bienvenu, Folio Junior, 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Claude_Roy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Roy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Recueils de poésie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ses premiers textes littéraires sont des poèmes, publiés par Pierre Seghers dans Poésie 40 et Max-Pol Fouchet dans Fontaine.
 L'Enfance de l'Art, Alger 1942
 Clair comme le jour, 1943
 Aragon,1945
